--- a/xlsx/邪恶轴心_intext.xlsx
+++ b/xlsx/邪恶轴心_intext.xlsx
@@ -15,237 +15,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>邪恶轴心</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%AA%E6%83%A1%E8%BB%B8%E5%BF%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_邪恶轴心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>朝鲜民主主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·沃克·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%83%85%E5%92%A8%E6%96%87</t>
+  </si>
+  <si>
+    <t>国情咨文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BE%BE%E5%A7%86%E6%94%BF%E6%9D%83</t>
+  </si>
+  <si>
+    <t>萨达姆政权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>轴心国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>二次大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>纳粹德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>九一一事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E5%B8%8C</t>
+  </si>
+  <si>
+    <t>乔治·沃克·布希</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%90%A8%E7%8E%9B%C2%B7%E6%9C%AC%C2%B7%E6%8B%89%E7%99%BB</t>
+  </si>
+  <si>
+    <t>奥萨玛·本·拉登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8D%9A%E5%B0%94%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>约翰·博尔顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%BF%E6%8B%89%E4%BC%AF%E5%88%A9%E6%AF%94%E4%BA%9A%E4%BA%BA%E6%B0%91%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B0%91%E4%BC%97%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大阿拉伯利比亚人民社会主义民众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%93%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>流氓国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>伊朗人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>阿拉伯人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>伊拉克战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E6%8C%81%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9%E7%9A%84%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>支持恐怖主义的国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
+  </si>
+  <si>
+    <t>暴政据点</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_embargoes</t>
+  </si>
+  <si>
+    <t>en-United States embargoes</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%88%B6%E8%A3%81</t>
+  </si>
+  <si>
+    <t>经济制裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E6%8E%92%E6%96%A5%E7%9A%84%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>被排斥的国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8E%A0%E5%A4%BA%E8%80%85</t>
+  </si>
+  <si>
+    <t>新闻自由掠夺者</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%AA%E6%81%B6%E8%BD%B4%E5%BF%83</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_邪恶轴心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>朝鲜民主主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·沃克·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%83%85%E5%92%A8%E6%96%87</t>
-  </si>
-  <si>
-    <t>国情咨文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>恐怖主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BE%BE%E5%A7%86%E6%94%BF%E6%9D%83</t>
-  </si>
-  <si>
-    <t>萨达姆政权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>軸心國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>二次大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>納粹德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>九一一事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E5%B8%8C</t>
-  </si>
-  <si>
-    <t>喬治·沃克·布希</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%90%A8%E7%8E%9B%C2%B7%E6%9C%AC%C2%B7%E6%8B%89%E7%99%BB</t>
-  </si>
-  <si>
-    <t>奥萨玛·本·拉登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8D%9A%E5%B0%94%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>约翰·博尔顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%BF%E6%8B%89%E4%BC%AF%E5%88%A9%E6%AF%94%E4%BA%9A%E4%BA%BA%E6%B0%91%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B0%91%E4%BC%97%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大阿拉伯利比亚人民社会主义民众国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%93%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>流氓國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>伊朗人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>阿拉伯人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>伊拉克戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E6%8C%81%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9%E7%9A%84%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>支持恐怖主義的國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
-  </si>
-  <si>
-    <t>暴政据点</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_embargoes</t>
-  </si>
-  <si>
-    <t>en-United States embargoes</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%88%B6%E8%A3%81</t>
-  </si>
-  <si>
-    <t>經濟制裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E6%8E%92%E6%96%A5%E7%9A%84%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>被排斥的國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8E%A0%E5%A4%BA%E8%80%85</t>
-  </si>
-  <si>
-    <t>新闻自由掠夺者</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1399,7 +1405,7 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1425,10 +1431,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1483,10 +1489,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1512,10 +1518,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1570,10 +1576,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1599,10 +1605,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1628,10 +1634,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1657,10 +1663,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1686,10 +1692,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1715,10 +1721,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1744,10 +1750,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1773,18 +1779,76 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
         <v>76</v>
       </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/邪恶轴心_intext.xlsx
+++ b/xlsx/邪恶轴心_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_邪恶轴心</t>
+    <t>体育运动_体育运动_伊朗_邪恶轴心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
